--- a/legendre_out/DATA/a1/a0/a1_rates.xlsx
+++ b/legendre_out/DATA/a1/a0/a1_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.288803848197478e-166</v>
+        <v>4.905643186866157e-167</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>3.154927941909332e-109</v>
+        <v>1.749864456155974e-109</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.409562853407983e-80</v>
+        <v>9.433622015266827e-81</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>5.384630936247528e-52</v>
+        <v>4.348585502534422e-52</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>9.342000848912574e-38</v>
+        <v>8.311927952438228e-38</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.036063348322141e-29</v>
+        <v>2.893656918760804e-29</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.366325989871341e-23</v>
+        <v>1.39260623764516e-23</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.439674052030855e-19</v>
+        <v>1.587569218369428e-19</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>1.458037975629274e-16</v>
+        <v>1.770234382693933e-16</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>3.107411709723618e-14</v>
+        <v>4.231219697337213e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2.228971821747744e-12</v>
+        <v>3.460086636325952e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>7.199292527453462e-07</v>
+        <v>2.4248722844848e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003603386516996228</v>
+        <v>0.002567744939791815</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01391545970301945</v>
+        <v>0.1844154854759752</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.151187615173061</v>
+        <v>3.282778869163043</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8015997337523576</v>
+        <v>25.75951146226274</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>2.72660298530678</v>
+        <v>120.0254349679823</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>6.919436556539795</v>
+        <v>393.6123439299234</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>14.33437862384438</v>
+        <v>1008.013273648192</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>41.21235042960099</v>
+        <v>4026.821533306213</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>84.53822734421537</v>
+        <v>10525.81570660468</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>141.0591318623816</v>
+        <v>21144.65211941865</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>205.7159632119986</v>
+        <v>35700.54322153331</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>273.5953983636883</v>
+        <v>53450.98319743477</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a0/a1_rates.xlsx
+++ b/legendre_out/DATA/a1/a0/a1_rates.xlsx
@@ -386,7 +386,7 @@
         <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.905643186866157e-167</v>
+        <v>4.90690267566139e-167</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>1.749864456155974e-109</v>
+        <v>1.748729448217738e-109</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>9.433622015266827e-81</v>
+        <v>9.42194646275923e-81</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>4.348585502534422e-52</v>
+        <v>4.340049360116261e-52</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>8.311927952438228e-38</v>
+        <v>8.292183920552423e-38</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.893656918760804e-29</v>
+        <v>2.886175740044587e-29</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.39260623764516e-23</v>
+        <v>1.388972919806164e-23</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>1.587569218369428e-19</v>
+        <v>1.583680811654279e-19</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>1.770234382693933e-16</v>
+        <v>1.766466863177189e-16</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>4.231219697337213e-14</v>
+        <v>4.224064444435551e-14</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.460086636325952e-12</v>
+        <v>3.455954600223495e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2.4248722844848e-06</v>
+        <v>2.426897878671847e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002567744939791815</v>
+        <v>0.002571713611505303</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>2.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1844154854759752</v>
+        <v>0.1847231907666262</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>3.282778869163043</v>
+        <v>3.288151443352408</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.5</v>
       </c>
       <c r="C17" t="n">
-        <v>25.75951146226274</v>
+        <v>25.80013815421951</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>120.0254349679823</v>
+        <v>120.2080354862851</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>4.5</v>
       </c>
       <c r="C19" t="n">
-        <v>393.6123439299234</v>
+        <v>394.1928734999856</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>1008.013273648192</v>
+        <v>1009.462040609328</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>4026.821533306213</v>
+        <v>4032.386560735382</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>10525.81570660468</v>
+        <v>10539.96678917499</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>21144.65211941865</v>
+        <v>21172.51363782157</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>35700.54322153331</v>
+        <v>35746.87594297948</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>53450.98319743477</v>
+        <v>53519.53851421857</v>
       </c>
     </row>
   </sheetData>
